--- a/com.apartments/src/test/resources/test_data.xlsx
+++ b/com.apartments/src/test/resources/test_data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anis\IdeaProjects\SeleniumBootcamp\com.apartments\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95530824-A86A-45F1-ABEF-283AC56EE548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CA464C-B368-488D-B4A2-3084A5E1DB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
+    <sheet name="location" sheetId="2" r:id="rId2"/>
+    <sheet name="price" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>automationanis@gmail.com</t>
   </si>
   <si>
     <t>anisloucifi</t>
+  </si>
+  <si>
+    <t>new Jersey</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
@@ -361,7 +372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -386,4 +397,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B069BA-1C88-4603-BA46-99C4CF7C1F5A}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297C00F5-2BA2-4492-A0E9-8AD68DBD8194}">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.apartments/src/test/resources/test_data.xlsx
+++ b/com.apartments/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anis\IdeaProjects\SeleniumBootcamp\com.apartments\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CA464C-B368-488D-B4A2-3084A5E1DB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A08747-1A71-4C24-9AE6-60E30672A9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
@@ -372,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297C00F5-2BA2-4492-A0E9-8AD68DBD8194}">
   <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
